--- a/src/faction_data.xlsx
+++ b/src/faction_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex_\Downloads\mesbg-list-builder\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC028114-A5B8-443B-90F9-8A252949585C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ADEAED8-52FA-4E07-A812-3B0EA93C629C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="12852" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -49,9 +49,6 @@
     <t>Mordor</t>
   </si>
   <si>
-    <t>&lt;b&gt;"Our Enemy is Ready, His full Strength gathered"&lt;/b&gt; - Whilst you have more models on the board than your opponent, friendly Mordor Warrior models gain + 1 Courage and may re-roll ls To Wound when making Strikes.</t>
-  </si>
-  <si>
     <t>['The Easterlings', 'The Serpent Horde']</t>
   </si>
   <si>
@@ -187,13 +184,6 @@
   </si>
   <si>
     <t>The Return of the King</t>
-  </si>
-  <si>
-    <t>Barad Dur</t>
-  </si>
-  <si>
-    <t>&lt;b&gt;"The Power of the Ring Could not be Undone"&lt;/b&gt; - Sauron's warband size is increased to 24. Additionally, a force that contains solely of models from the Barad-dûr army list will never be considered Broken if Sauron has 3 or more Wounds remaining. 
- Should Sauron have 2 or fewer Wounds remaining, the army will break as normal. Should Sauron be slain, the army will immediately count as being Broken.</t>
   </si>
   <si>
     <t>['Desolator of the North']</t>
@@ -556,9 +546,6 @@
   <si>
     <t>&lt;b&gt;"Ride for Ruin and the World's Ending!"&lt;/b&gt; - Friendly Rohan Cavalry models gain +1 Strength on a turn in which they Charge.
 &lt;b&gt;"Death!"&lt;/b&gt; - Once per game, at the start of any Fight phase, so long as he is alive and on the battlefield, Théoden can declare that he is using this ability. Every friendly Rohan Hero within 12" may declare either a Heroic Combat or Heroic Strike (if able without expending Might points to do so.</t>
-  </si>
-  <si>
-    <t>&lt;b&gt;"You have my sword."&lt;/b&gt; - Friendly As long as Frodo is alive and on the table (or escapes the board in Scenarios where this applies), all models from The Fellowship army list gain the Fearless special rule. Additionally, a force that consists solely of models from The Fellowship army list will never be considered broken if Frodo is alive and on the table (or escapes the board in Scenarios where this applies).</t>
   </si>
   <si>
     <t>&lt;b&gt;"They're dangerous folk, wandering the wilds"&lt;/b&gt; - All models from this army list gain the Woodland Creature special rule, and the Rangers of the North and Dunedain may benefit from the Stand Fast! of Arathorn, Halbarad and Aragorn - Strider. Additionally, the Rangers of the North and the Dunedain increase their Attacks value to 2, while they have the Infantry keyword.</t>
@@ -839,6 +826,18 @@
     <t>&lt;b&gt;"No quarter was asked..."&lt;/b&gt; - Easterling models receive +1 Courage when their force is Broken. Additionally, once per game, in Scenarios in which a die is rolled to see when the game ends, so long as there is at least one Easterling Hero model alive and on the battlefield, the Easterling player may choose to have the dice re-rolled if the Scenario ends before they wish it to.
 &lt;b&gt;"The Dragon Cults"&lt;/b&gt; - Easterling Warriors and Easterling Kataphrakts in warbands led by the Dragon Emperor or Easterling Dragon Knights do not need to pay the points to be upgraded to Black Dragons - this upgrade is free.
 &lt;b&gt;"Heroes of the Easterlings"&lt;/b&gt; - Easterling Hero models may re-roll a D6 in a Duel roll.</t>
+  </si>
+  <si>
+    <t>Barad-dur</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;"The Power of the Ring Could not be Undone"&lt;/b&gt; - Sauron's warband size is increased to 24. Additionally, a force that contains solely of models from the Barad-dûr army list will never be considered Broken if Sauron has 3 or more Wounds remaining. Should Sauron have 2 or fewer Wounds remaining, the army will break as normal. Should Sauron be slain, the army will immediately count as being Broken.</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;"You have my sword."&lt;/b&gt; - As long as Frodo is alive and on the table (or escapes the board in Scenarios where this applies), all models from The Fellowship army list gain the Fearless special rule. Additionally, a force that consists solely of models from The Fellowship army list will never be considered broken if Frodo is alive and on the table (or escapes the board in Scenarios where this applies).</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;"Our Enemy is Ready, His full Strength gathered"&lt;/b&gt; - Whilst you have more models on the board than your opponent, friendly Mordor Warrior models gain + 1 Courage and may re-roll 1s To Wound when making Strikes.</t>
   </si>
 </sst>
 </file>
@@ -1206,8 +1205,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1251,942 +1250,943 @@
         <v>8</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="180" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
     </row>
     <row r="11" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
     </row>
     <row r="12" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="C12" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="C13" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="270" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
     </row>
     <row r="16" spans="1:4" ht="285" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
     </row>
     <row r="17" spans="1:4" ht="405" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
     </row>
     <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="C18" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
     </row>
     <row r="20" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
     </row>
     <row r="21" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="C21" s="2" t="s">
+      <c r="D21" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
     </row>
-    <row r="23" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>55</v>
+        <v>225</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>56</v>
+        <v>226</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
     </row>
     <row r="27" spans="1:4" ht="165" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
     </row>
     <row r="28" spans="1:4" ht="270" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
     </row>
     <row r="29" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
     </row>
     <row r="31" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
     </row>
     <row r="32" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="180" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
     </row>
     <row r="34" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D34" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
     </row>
     <row r="36" spans="1:4" ht="375" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
     </row>
     <row r="37" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
     </row>
     <row r="40" spans="1:4" ht="300" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
     </row>
     <row r="41" spans="1:4" ht="150" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
     </row>
     <row r="42" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D42" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
     </row>
     <row r="44" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D51" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="210" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
     </row>
     <row r="53" spans="1:4" ht="405" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
     </row>
     <row r="54" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D54" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="300" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
     </row>
     <row r="57" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D57" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="315" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
     </row>
     <row r="59" spans="1:4" ht="255" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
     </row>
     <row r="60" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D60" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D61" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
     </row>
     <row r="63" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
     </row>
     <row r="64" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D65" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="165" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
     </row>
     <row r="67" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
     </row>
     <row r="69" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="210" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
     </row>
     <row r="71" spans="1:4" ht="285" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
     </row>
     <row r="72" spans="1:4" ht="390" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
     </row>
     <row r="73" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
     </row>
     <row r="75" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="165" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
     </row>
     <row r="77" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="165" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
     </row>
     <row r="79" spans="1:4" ht="405" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
     </row>
     <row r="80" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>